--- a/Sprint_3_Backlog.xlsx
+++ b/Sprint_3_Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lachl\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4817F62-CA90-4A16-88E4-5FFB0ECA7BEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8649D77-BD15-477F-8730-92D30624C40F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 2 Backlog" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>Story</t>
   </si>
@@ -115,10 +115,37 @@
     <t>Makes the quiz page disappear</t>
   </si>
   <si>
-    <t>Unit testing for frint end</t>
+    <t>Unit testing for back end</t>
   </si>
   <si>
-    <t>Unit testing for back end</t>
+    <t>Tests for Components</t>
+  </si>
+  <si>
+    <t>Unit testing for backend</t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Rauf, Robert</t>
+  </si>
+  <si>
+    <t>Matthew</t>
+  </si>
+  <si>
+    <t>Prepare Presentation</t>
+  </si>
+  <si>
+    <t>Preactice and prepare presentation</t>
+  </si>
+  <si>
+    <t>Everyone</t>
+  </si>
+  <si>
+    <t>Unit testing for front end</t>
   </si>
 </sst>
 </file>
@@ -380,16 +407,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -429,7 +456,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1612,7 +1639,7 @@
   <dimension ref="A1:N1224"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1690,16 +1717,22 @@
       <c r="B3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="9">
+        <v>2</v>
+      </c>
       <c r="D3" s="9">
         <f t="shared" ref="D3:D67" si="0">C3 - SUM(G3:K3)</f>
         <v>0</v>
       </c>
-      <c r="E3" s="10"/>
+      <c r="E3" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="F3" s="11"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="I3" s="10">
+        <v>2</v>
+      </c>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
       <c r="L3" s="11"/>
@@ -1714,15 +1747,21 @@
       <c r="B4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="9"/>
+      <c r="C4" s="9">
+        <v>2</v>
+      </c>
       <c r="D4" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="F4" s="11"/>
       <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
+      <c r="H4" s="10">
+        <v>2</v>
+      </c>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
@@ -1738,15 +1777,21 @@
       <c r="B5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="9"/>
+      <c r="C5" s="9">
+        <v>2</v>
+      </c>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="F5" s="11"/>
       <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
+      <c r="H5" s="10">
+        <v>2</v>
+      </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
@@ -1764,16 +1809,24 @@
       <c r="B6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="9">
+        <v>2</v>
+      </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6" s="10"/>
+      <c r="E6" s="21" t="s">
+        <v>30</v>
+      </c>
       <c r="F6" s="11"/>
       <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
+      <c r="H6" s="10">
+        <v>1</v>
+      </c>
+      <c r="I6" s="10">
+        <v>1</v>
+      </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="11"/>
@@ -1790,16 +1843,24 @@
       <c r="B7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="9"/>
+      <c r="C7" s="9">
+        <v>10</v>
+      </c>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E7" s="10"/>
+      <c r="E7" s="21" t="s">
+        <v>31</v>
+      </c>
       <c r="F7" s="11"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
+      <c r="G7" s="10">
+        <v>5</v>
+      </c>
+      <c r="H7" s="21"/>
+      <c r="I7" s="10">
+        <v>5</v>
+      </c>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="11"/>
@@ -1816,16 +1877,24 @@
       <c r="B8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="9"/>
+      <c r="C8" s="9">
+        <v>2</v>
+      </c>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="10"/>
+      <c r="E8" s="21" t="s">
+        <v>32</v>
+      </c>
       <c r="F8" s="11"/>
       <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="H8" s="10">
+        <v>1</v>
+      </c>
+      <c r="I8" s="10">
+        <v>1</v>
+      </c>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="11"/>
@@ -1837,10 +1906,14 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
+        <v>36</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="9">
+        <v>10</v>
+      </c>
       <c r="D9" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1848,8 +1921,12 @@
       <c r="E9" s="10"/>
       <c r="F9" s="11"/>
       <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
+      <c r="H9" s="10">
+        <v>5</v>
+      </c>
+      <c r="I9" s="10">
+        <v>5</v>
+      </c>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="11"/>
@@ -1861,19 +1938,29 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
+        <v>26</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="9">
+        <v>10</v>
+      </c>
       <c r="D10" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
+      <c r="G10" s="10">
+        <v>5</v>
+      </c>
+      <c r="H10" s="21">
+        <v>2</v>
+      </c>
+      <c r="I10" s="10">
+        <v>3</v>
+      </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="11"/>
@@ -1884,20 +1971,32 @@
       <c r="N10" s="10"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
+      <c r="A11" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="9">
+        <v>10</v>
+      </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="10"/>
+      <c r="E11" s="21" t="s">
+        <v>35</v>
+      </c>
       <c r="F11" s="11"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
+      <c r="J11" s="10">
+        <v>5</v>
+      </c>
+      <c r="K11" s="10">
+        <v>5</v>
+      </c>
       <c r="L11" s="11"/>
       <c r="M11" s="18" t="str">
         <f t="shared" si="1"/>
@@ -14281,7 +14380,7 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>SUM('Sprint 2 Backlog'!C:C)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -14316,19 +14415,19 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>$A$2 - SUM('Sprint 2 Backlog'!G:G)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <f>$A$2 - SUM('Sprint 2 Backlog'!G:H)</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C6">
         <f>$A$2 - SUM('Sprint 2 Backlog'!G:I)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <f>$A$2 - SUM('Sprint 2 Backlog'!G:J)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <f>$A$2 - SUM('Sprint 2 Backlog'!G:K)</f>
